--- a/smoke_results.xlsx
+++ b/smoke_results.xlsx
@@ -26,8 +26,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MelisaHerović</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>MelisaHerović:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Test ID</t>
   </si>
@@ -75,10 +107,11 @@
  to the search query.</t>
   </si>
   <si>
-    <t>To be filled in after testing</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
+    <t>The search result displayed correct searches
+ after the query.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>NB17</t>
@@ -101,6 +134,9 @@
  should be displayed (e.g., "No results found").</t>
   </si>
   <si>
+    <t>The search result after inputing invalid input that doesent exist, there is error message -  We are sorry. We could not find any results matching your search term.</t>
+  </si>
+  <si>
     <t>NB18</t>
   </si>
   <si>
@@ -113,6 +149,13 @@
   </si>
   <si>
     <t>The application should display an error message.</t>
+  </si>
+  <si>
+    <t>After clicking enter on empty field there is no error or any
+ kind message message and nothing happens.</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>NB19</t>
@@ -132,6 +175,10 @@
 query containing special characters.</t>
   </si>
   <si>
+    <t>Even if object that is searched for exists with special 
+character in name it is not shown after clickin enter.</t>
+  </si>
+  <si>
     <t>NB20</t>
   </si>
   <si>
@@ -147,6 +194,10 @@
     <t>Suggestions should appear as the user types, and the user should be able to select a suggestion to complete the search and go straight to that object.</t>
   </si>
   <si>
+    <t>Suggestion was appeared for a user and if user click on it in
+drop down the name is autocomplete and he goes strait to the object.</t>
+  </si>
+  <si>
     <t>NB21</t>
   </si>
   <si>
@@ -159,8 +210,11 @@
 4. Observe the search results.</t>
   </si>
   <si>
-    <t>The search should return the same results regardless of whether the query is
- typed in uppercase, lowercase, or mixed case.</t>
+    <t>The search should return the same results regardless of whether the query is typed in uppercase, lowercase, or mixed case.</t>
+  </si>
+  <si>
+    <t>The search returns the same results regardless of whether the 
+query is typed in uppercase, lowercase, or mixed case.</t>
   </si>
 </sst>
 </file>
@@ -173,7 +227,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +391,17 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1162,7 +1227,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1172,8 +1237,8 @@
     <col min="3" max="3" width="13.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="36.0909090909091" customWidth="1"/>
     <col min="5" max="5" width="62.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="65.7272727272727" customWidth="1"/>
-    <col min="7" max="7" width="23.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="7" max="7" width="50.9090909090909" customWidth="1"/>
     <col min="8" max="8" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1222,7 +1287,7 @@
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1248,8 +1313,8 @@
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1257,10 +1322,10 @@
     </row>
     <row r="4" ht="42" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1269,24 +1334,24 @@
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="56" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1295,24 +1360,24 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1321,13 +1386,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
@@ -1335,10 +1400,10 @@
     </row>
     <row r="7" ht="56" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1347,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>15</v>
@@ -1532,5 +1597,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>